--- a/CumulativeTestsByTypeByCounty/2022-03-19.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-03-19.xlsx
@@ -1077,13 +1077,13 @@
         <v>85263</v>
       </c>
       <c r="C2" s="4">
-        <v>2309</v>
+        <v>2331</v>
       </c>
       <c r="D2" s="4">
         <v>47895</v>
       </c>
       <c r="E2" s="4">
-        <v>135467</v>
+        <v>135489</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1111,13 +1111,13 @@
         <v>88122</v>
       </c>
       <c r="C4" s="4">
-        <v>4900</v>
+        <v>4961</v>
       </c>
       <c r="D4" s="4">
         <v>94210</v>
       </c>
       <c r="E4" s="4">
-        <v>187232</v>
+        <v>187293</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>19917</v>
+        <v>19920</v>
       </c>
       <c r="C5" s="4">
-        <v>3056</v>
+        <v>3072</v>
       </c>
       <c r="D5" s="4">
         <v>16902</v>
       </c>
       <c r="E5" s="4">
-        <v>39875</v>
+        <v>39894</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1145,13 +1145,13 @@
         <v>5252</v>
       </c>
       <c r="C6" s="4">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D6" s="4">
         <v>2323</v>
       </c>
       <c r="E6" s="4">
-        <v>8505</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
@@ -1168,7 +1168,7 @@
         <v>1624</v>
       </c>
       <c r="E7" s="4">
-        <v>3204</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>126417</v>
+        <v>126418</v>
       </c>
       <c r="C8" s="4">
-        <v>1539</v>
+        <v>1551</v>
       </c>
       <c r="D8" s="4">
-        <v>21428</v>
+        <v>21445</v>
       </c>
       <c r="E8" s="4">
-        <v>149384</v>
+        <v>149414</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>34438</v>
+        <v>34439</v>
       </c>
       <c r="C9" s="4">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="D9" s="4">
-        <v>6886</v>
+        <v>6889</v>
       </c>
       <c r="E9" s="4">
-        <v>43283</v>
+        <v>43289</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="C10" s="4">
         <v>101</v>
@@ -1219,7 +1219,7 @@
         <v>2582</v>
       </c>
       <c r="E10" s="4">
-        <v>5660</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16894</v>
+        <v>16896</v>
       </c>
       <c r="C11" s="4">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="D11" s="4">
         <v>11229</v>
       </c>
       <c r="E11" s="4">
-        <v>29079</v>
+        <v>29092</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1247,13 +1247,13 @@
         <v>112638</v>
       </c>
       <c r="C12" s="4">
-        <v>3009</v>
+        <v>3058</v>
       </c>
       <c r="D12" s="4">
         <v>51789</v>
       </c>
       <c r="E12" s="4">
-        <v>167436</v>
+        <v>167485</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1281,13 +1281,13 @@
         <v>57645</v>
       </c>
       <c r="C14" s="4">
-        <v>8658</v>
+        <v>8661</v>
       </c>
       <c r="D14" s="4">
         <v>28466</v>
       </c>
       <c r="E14" s="4">
-        <v>94769</v>
+        <v>94772</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1298,13 +1298,13 @@
         <v>475165</v>
       </c>
       <c r="C15" s="4">
-        <v>16523</v>
+        <v>16598</v>
       </c>
       <c r="D15" s="4">
         <v>136219</v>
       </c>
       <c r="E15" s="4">
-        <v>627907</v>
+        <v>627982</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>5132882</v>
+        <v>5132928</v>
       </c>
       <c r="C16" s="4">
-        <v>84835</v>
+        <v>85990</v>
       </c>
       <c r="D16" s="4">
-        <v>807280</v>
+        <v>807322</v>
       </c>
       <c r="E16" s="4">
-        <v>6024997</v>
+        <v>6026240</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1332,13 +1332,13 @@
         <v>10442</v>
       </c>
       <c r="C17" s="4">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="D17" s="4">
         <v>6339</v>
       </c>
       <c r="E17" s="4">
-        <v>17426</v>
+        <v>17437</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1352,10 +1352,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18" s="4">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1366,13 +1366,13 @@
         <v>13978</v>
       </c>
       <c r="C19" s="4">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D19" s="4">
         <v>10603</v>
       </c>
       <c r="E19" s="4">
-        <v>25216</v>
+        <v>25218</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1383,13 +1383,13 @@
         <v>99270</v>
       </c>
       <c r="C20" s="4">
-        <v>10777</v>
+        <v>10789</v>
       </c>
       <c r="D20" s="4">
         <v>44523</v>
       </c>
       <c r="E20" s="4">
-        <v>154570</v>
+        <v>154582</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>681675</v>
+        <v>681676</v>
       </c>
       <c r="C21" s="4">
-        <v>27714</v>
+        <v>27782</v>
       </c>
       <c r="D21" s="4">
-        <v>149932</v>
+        <v>149934</v>
       </c>
       <c r="E21" s="4">
-        <v>859321</v>
+        <v>859392</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>516144</v>
+        <v>516146</v>
       </c>
       <c r="C22" s="4">
-        <v>14268</v>
+        <v>14374</v>
       </c>
       <c r="D22" s="4">
-        <v>61293</v>
+        <v>61369</v>
       </c>
       <c r="E22" s="4">
-        <v>591705</v>
+        <v>591889</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1502,13 +1502,13 @@
         <v>30115</v>
       </c>
       <c r="C27" s="4">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D27" s="4">
         <v>8253</v>
       </c>
       <c r="E27" s="4">
-        <v>39289</v>
+        <v>39293</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1519,13 +1519,13 @@
         <v>65998</v>
       </c>
       <c r="C28" s="4">
-        <v>2908</v>
+        <v>2940</v>
       </c>
       <c r="D28" s="4">
         <v>17362</v>
       </c>
       <c r="E28" s="4">
-        <v>86268</v>
+        <v>86300</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1536,13 +1536,13 @@
         <v>71918</v>
       </c>
       <c r="C29" s="4">
-        <v>2428</v>
+        <v>2461</v>
       </c>
       <c r="D29" s="4">
         <v>21449</v>
       </c>
       <c r="E29" s="4">
-        <v>95795</v>
+        <v>95828</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>23439</v>
+        <v>23440</v>
       </c>
       <c r="C30" s="4">
-        <v>2714</v>
+        <v>2722</v>
       </c>
       <c r="D30" s="4">
         <v>18118</v>
       </c>
       <c r="E30" s="4">
-        <v>44271</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7852</v>
+        <v>7854</v>
       </c>
       <c r="C31" s="4">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D31" s="4">
         <v>14238</v>
       </c>
       <c r="E31" s="4">
-        <v>22459</v>
+        <v>22466</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>517542</v>
+        <v>517549</v>
       </c>
       <c r="C32" s="4">
-        <v>12489</v>
+        <v>12551</v>
       </c>
       <c r="D32" s="4">
-        <v>191038</v>
+        <v>191084</v>
       </c>
       <c r="E32" s="4">
-        <v>721069</v>
+        <v>721184</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1604,13 +1604,13 @@
         <v>11049</v>
       </c>
       <c r="C33" s="4">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D33" s="4">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="E33" s="4">
-        <v>16293</v>
+        <v>16296</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C34" s="4">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D34" s="4">
         <v>1906</v>
       </c>
       <c r="E34" s="4">
-        <v>6681</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1638,13 +1638,13 @@
         <v>22216</v>
       </c>
       <c r="C35" s="4">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="D35" s="4">
-        <v>17020</v>
+        <v>17021</v>
       </c>
       <c r="E35" s="4">
-        <v>42653</v>
+        <v>42656</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>16539</v>
+        <v>16567</v>
       </c>
       <c r="C37" s="4">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D37" s="4">
-        <v>4415</v>
+        <v>4421</v>
       </c>
       <c r="E37" s="4">
-        <v>21890</v>
+        <v>21927</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1689,13 +1689,13 @@
         <v>41589</v>
       </c>
       <c r="C38" s="4">
-        <v>1429</v>
+        <v>1437</v>
       </c>
       <c r="D38" s="4">
         <v>37711</v>
       </c>
       <c r="E38" s="4">
-        <v>80729</v>
+        <v>80737</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1709,10 +1709,10 @@
         <v>479</v>
       </c>
       <c r="D39" s="4">
-        <v>6952</v>
+        <v>6953</v>
       </c>
       <c r="E39" s="4">
-        <v>16086</v>
+        <v>16087</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1723,13 +1723,13 @@
         <v>7521</v>
       </c>
       <c r="C40" s="4">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D40" s="4">
         <v>7094</v>
       </c>
       <c r="E40" s="4">
-        <v>15376</v>
+        <v>15378</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1757,13 +1757,13 @@
         <v>3132</v>
       </c>
       <c r="C42" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" s="4">
         <v>4105</v>
       </c>
       <c r="E42" s="4">
-        <v>7312</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1774,13 +1774,13 @@
         <v>5075</v>
       </c>
       <c r="C43" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D43" s="4">
         <v>5975</v>
       </c>
       <c r="E43" s="4">
-        <v>11244</v>
+        <v>11245</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1873337</v>
+        <v>1873340</v>
       </c>
       <c r="C44" s="4">
-        <v>121116</v>
+        <v>121677</v>
       </c>
       <c r="D44" s="4">
-        <v>421876</v>
+        <v>421888</v>
       </c>
       <c r="E44" s="4">
-        <v>2416329</v>
+        <v>2416905</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>22120</v>
+        <v>22121</v>
       </c>
       <c r="C46" s="4">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="D46" s="4">
-        <v>13096</v>
+        <v>13098</v>
       </c>
       <c r="E46" s="4">
-        <v>36489</v>
+        <v>36495</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>224886</v>
+        <v>224901</v>
       </c>
       <c r="C47" s="4">
-        <v>14637</v>
+        <v>14867</v>
       </c>
       <c r="D47" s="4">
-        <v>71839</v>
+        <v>71860</v>
       </c>
       <c r="E47" s="4">
-        <v>311362</v>
+        <v>311628</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>13102</v>
+        <v>13108</v>
       </c>
       <c r="C48" s="4">
         <v>395</v>
       </c>
       <c r="D48" s="4">
-        <v>8235</v>
+        <v>8241</v>
       </c>
       <c r="E48" s="4">
-        <v>21732</v>
+        <v>21744</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1879,10 +1879,10 @@
         <v>40</v>
       </c>
       <c r="D49" s="4">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="E49" s="4">
-        <v>8388</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>35953</v>
+        <v>35954</v>
       </c>
       <c r="C50" s="4">
-        <v>2608</v>
+        <v>2629</v>
       </c>
       <c r="D50" s="4">
         <v>16166</v>
       </c>
       <c r="E50" s="4">
-        <v>54727</v>
+        <v>54749</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1910,13 +1910,13 @@
         <v>151164</v>
       </c>
       <c r="C51" s="4">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="D51" s="4">
-        <v>36811</v>
+        <v>36813</v>
       </c>
       <c r="E51" s="4">
-        <v>190511</v>
+        <v>190517</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1978,13 +1978,13 @@
         <v>4269</v>
       </c>
       <c r="C55" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D55" s="4">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="E55" s="4">
-        <v>8875</v>
+        <v>8877</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -2012,13 +2012,13 @@
         <v>4506</v>
       </c>
       <c r="C57" s="4">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D57" s="4">
         <v>4389</v>
       </c>
       <c r="E57" s="4">
-        <v>9504</v>
+        <v>9506</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4468068</v>
+        <v>4468072</v>
       </c>
       <c r="C58" s="4">
-        <v>179254</v>
+        <v>179919</v>
       </c>
       <c r="D58" s="4">
-        <v>797851</v>
+        <v>797853</v>
       </c>
       <c r="E58" s="4">
-        <v>5445173</v>
+        <v>5445844</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2046,13 +2046,13 @@
         <v>12394</v>
       </c>
       <c r="C59" s="4">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D59" s="4">
         <v>7382</v>
       </c>
       <c r="E59" s="4">
-        <v>20422</v>
+        <v>20423</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2063,13 +2063,13 @@
         <v>18059</v>
       </c>
       <c r="C60" s="4">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="D60" s="4">
         <v>9876</v>
       </c>
       <c r="E60" s="4">
-        <v>28634</v>
+        <v>28646</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9480</v>
+        <v>9481</v>
       </c>
       <c r="C61" s="4">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D61" s="4">
-        <v>8901</v>
+        <v>8905</v>
       </c>
       <c r="E61" s="4">
-        <v>19688</v>
+        <v>19694</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1095832</v>
+        <v>1095833</v>
       </c>
       <c r="C63" s="4">
-        <v>85976</v>
+        <v>86195</v>
       </c>
       <c r="D63" s="4">
         <v>330049</v>
       </c>
       <c r="E63" s="4">
-        <v>1511857</v>
+        <v>1512077</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2165,13 +2165,13 @@
         <v>2382</v>
       </c>
       <c r="C66" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D66" s="4">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="E66" s="4">
-        <v>5558</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2182,13 +2182,13 @@
         <v>27449</v>
       </c>
       <c r="C67" s="4">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="D67" s="4">
         <v>14162</v>
       </c>
       <c r="E67" s="4">
-        <v>45173</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,7 +2196,7 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8582</v>
+        <v>8584</v>
       </c>
       <c r="C68" s="4">
         <v>577</v>
@@ -2205,7 +2205,7 @@
         <v>10429</v>
       </c>
       <c r="E68" s="4">
-        <v>19588</v>
+        <v>19590</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>109461</v>
+        <v>109464</v>
       </c>
       <c r="C69" s="4">
-        <v>6784</v>
+        <v>6812</v>
       </c>
       <c r="D69" s="4">
-        <v>85498</v>
+        <v>85567</v>
       </c>
       <c r="E69" s="4">
-        <v>201743</v>
+        <v>201843</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2250,13 +2250,13 @@
         <v>1517658</v>
       </c>
       <c r="C71" s="4">
-        <v>24293</v>
+        <v>24404</v>
       </c>
       <c r="D71" s="4">
-        <v>707696</v>
+        <v>707697</v>
       </c>
       <c r="E71" s="4">
-        <v>2249647</v>
+        <v>2249759</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>294044</v>
+        <v>294046</v>
       </c>
       <c r="C72" s="4">
-        <v>10278</v>
+        <v>10324</v>
       </c>
       <c r="D72" s="4">
         <v>70476</v>
       </c>
       <c r="E72" s="4">
-        <v>374798</v>
+        <v>374846</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2284,13 +2284,13 @@
         <v>38232</v>
       </c>
       <c r="C73" s="4">
-        <v>2391</v>
+        <v>2425</v>
       </c>
       <c r="D73" s="4">
         <v>17554</v>
       </c>
       <c r="E73" s="4">
-        <v>58177</v>
+        <v>58211</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2318,13 +2318,13 @@
         <v>49112</v>
       </c>
       <c r="C75" s="4">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="D75" s="4">
         <v>14364</v>
       </c>
       <c r="E75" s="4">
-        <v>64715</v>
+        <v>64724</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2335,13 +2335,13 @@
         <v>26682</v>
       </c>
       <c r="C76" s="4">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="D76" s="4">
         <v>9419</v>
       </c>
       <c r="E76" s="4">
-        <v>37227</v>
+        <v>37236</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2352,13 +2352,13 @@
         <v>1870</v>
       </c>
       <c r="C77" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" s="4">
         <v>983</v>
       </c>
       <c r="E77" s="4">
-        <v>2902</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1414639</v>
+        <v>1414697</v>
       </c>
       <c r="C80" s="4">
-        <v>54119</v>
+        <v>54313</v>
       </c>
       <c r="D80" s="4">
-        <v>213850</v>
+        <v>213900</v>
       </c>
       <c r="E80" s="4">
-        <v>1682608</v>
+        <v>1682910</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2420,13 +2420,13 @@
         <v>8234</v>
       </c>
       <c r="C81" s="4">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D81" s="4">
         <v>2268</v>
       </c>
       <c r="E81" s="4">
-        <v>11141</v>
+        <v>11143</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26757</v>
+        <v>26758</v>
       </c>
       <c r="C82" s="4">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D82" s="4">
         <v>24436</v>
       </c>
       <c r="E82" s="4">
-        <v>52096</v>
+        <v>52099</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>39408</v>
+        <v>39410</v>
       </c>
       <c r="C83" s="4">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D83" s="4">
-        <v>10444</v>
+        <v>10452</v>
       </c>
       <c r="E83" s="4">
-        <v>50442</v>
+        <v>50453</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2474,10 +2474,10 @@
         <v>321</v>
       </c>
       <c r="D84" s="4">
-        <v>3176</v>
+        <v>3206</v>
       </c>
       <c r="E84" s="4">
-        <v>9329</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2488,13 +2488,13 @@
         <v>726981</v>
       </c>
       <c r="C85" s="4">
-        <v>28857</v>
+        <v>28917</v>
       </c>
       <c r="D85" s="4">
-        <v>129969</v>
+        <v>129970</v>
       </c>
       <c r="E85" s="4">
-        <v>885807</v>
+        <v>885868</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2508,10 +2508,10 @@
         <v>79</v>
       </c>
       <c r="D86" s="4">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="E86" s="4">
-        <v>7281</v>
+        <v>7285</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2522,13 +2522,13 @@
         <v>24376</v>
       </c>
       <c r="C87" s="4">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="D87" s="4">
         <v>14549</v>
       </c>
       <c r="E87" s="4">
-        <v>40162</v>
+        <v>40177</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2556,13 +2556,13 @@
         <v>5504</v>
       </c>
       <c r="C89" s="4">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D89" s="4">
         <v>4190</v>
       </c>
       <c r="E89" s="4">
-        <v>10124</v>
+        <v>10137</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>19001</v>
+        <v>19002</v>
       </c>
       <c r="C90" s="4">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="D90" s="4">
-        <v>15828</v>
+        <v>15831</v>
       </c>
       <c r="E90" s="4">
-        <v>35406</v>
+        <v>35420</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2590,13 +2590,13 @@
         <v>14861</v>
       </c>
       <c r="C91" s="4">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D91" s="4">
-        <v>14489</v>
+        <v>14492</v>
       </c>
       <c r="E91" s="4">
-        <v>30735</v>
+        <v>30739</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>195811</v>
+        <v>195812</v>
       </c>
       <c r="C92" s="4">
-        <v>6835</v>
+        <v>6871</v>
       </c>
       <c r="D92" s="4">
         <v>64072</v>
       </c>
       <c r="E92" s="4">
-        <v>266718</v>
+        <v>266755</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2624,13 +2624,13 @@
         <v>92458</v>
       </c>
       <c r="C93" s="4">
-        <v>12670</v>
+        <v>12700</v>
       </c>
       <c r="D93" s="4">
         <v>54004</v>
       </c>
       <c r="E93" s="4">
-        <v>159132</v>
+        <v>159162</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2641,13 +2641,13 @@
         <v>62978</v>
       </c>
       <c r="C94" s="4">
-        <v>1588</v>
+        <v>1598</v>
       </c>
       <c r="D94" s="4">
-        <v>16826</v>
+        <v>16827</v>
       </c>
       <c r="E94" s="4">
-        <v>81392</v>
+        <v>81403</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>175261</v>
+        <v>175266</v>
       </c>
       <c r="C95" s="4">
-        <v>7012</v>
+        <v>7125</v>
       </c>
       <c r="D95" s="4">
-        <v>63790</v>
+        <v>63795</v>
       </c>
       <c r="E95" s="4">
-        <v>246063</v>
+        <v>246186</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2675,13 +2675,13 @@
         <v>35643</v>
       </c>
       <c r="C96" s="4">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D96" s="4">
         <v>10261</v>
       </c>
       <c r="E96" s="4">
-        <v>46473</v>
+        <v>46475</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2709,13 +2709,13 @@
         <v>12685</v>
       </c>
       <c r="C98" s="4">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D98" s="4">
         <v>5794</v>
       </c>
       <c r="E98" s="4">
-        <v>18974</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2760,13 +2760,13 @@
         <v>49330</v>
       </c>
       <c r="C101" s="4">
-        <v>4820</v>
+        <v>4854</v>
       </c>
       <c r="D101" s="4">
-        <v>32673</v>
+        <v>32674</v>
       </c>
       <c r="E101" s="4">
-        <v>86823</v>
+        <v>86858</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8814063</v>
+        <v>8814076</v>
       </c>
       <c r="C102" s="4">
-        <v>291123</v>
+        <v>292247</v>
       </c>
       <c r="D102" s="4">
-        <v>1316249</v>
+        <v>1316264</v>
       </c>
       <c r="E102" s="4">
-        <v>10421435</v>
+        <v>10422587</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2794,13 +2794,13 @@
         <v>92662</v>
       </c>
       <c r="C103" s="4">
-        <v>9714</v>
+        <v>9737</v>
       </c>
       <c r="D103" s="4">
         <v>40628</v>
       </c>
       <c r="E103" s="4">
-        <v>143004</v>
+        <v>143027</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>527594</v>
+        <v>527595</v>
       </c>
       <c r="C106" s="4">
-        <v>19366</v>
+        <v>19638</v>
       </c>
       <c r="D106" s="4">
         <v>75035</v>
       </c>
       <c r="E106" s="4">
-        <v>621995</v>
+        <v>622268</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,16 +2859,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C107" s="4">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D107" s="4">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E107" s="4">
-        <v>2749</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2879,13 +2879,13 @@
         <v>57740</v>
       </c>
       <c r="C108" s="4">
-        <v>3499</v>
+        <v>3513</v>
       </c>
       <c r="D108" s="4">
         <v>33573</v>
       </c>
       <c r="E108" s="4">
-        <v>94812</v>
+        <v>94826</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>1017626</v>
+        <v>1017663</v>
       </c>
       <c r="C109" s="4">
-        <v>24325</v>
+        <v>24409</v>
       </c>
       <c r="D109" s="4">
-        <v>486936</v>
+        <v>487138</v>
       </c>
       <c r="E109" s="4">
-        <v>1528887</v>
+        <v>1529210</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2913,13 +2913,13 @@
         <v>46220</v>
       </c>
       <c r="C110" s="4">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="D110" s="4">
         <v>23016</v>
       </c>
       <c r="E110" s="4">
-        <v>70621</v>
+        <v>70623</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2930,13 +2930,13 @@
         <v>21764</v>
       </c>
       <c r="C111" s="4">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D111" s="4">
         <v>10032</v>
       </c>
       <c r="E111" s="4">
-        <v>32089</v>
+        <v>32090</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2947,13 +2947,13 @@
         <v>62945</v>
       </c>
       <c r="C112" s="4">
-        <v>3466</v>
+        <v>3475</v>
       </c>
       <c r="D112" s="4">
         <v>50855</v>
       </c>
       <c r="E112" s="4">
-        <v>117266</v>
+        <v>117275</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2981,13 +2981,13 @@
         <v>22538</v>
       </c>
       <c r="C114" s="4">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="D114" s="4">
-        <v>14244</v>
+        <v>14245</v>
       </c>
       <c r="E114" s="4">
-        <v>37570</v>
+        <v>37579</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2998,13 +2998,13 @@
         <v>24651</v>
       </c>
       <c r="C115" s="4">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="D115" s="4">
         <v>28411</v>
       </c>
       <c r="E115" s="4">
-        <v>54065</v>
+        <v>54072</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3015,13 +3015,13 @@
         <v>3715</v>
       </c>
       <c r="C116" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D116" s="4">
         <v>1937</v>
       </c>
       <c r="E116" s="4">
-        <v>5707</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3032,13 +3032,13 @@
         <v>150237</v>
       </c>
       <c r="C117" s="4">
-        <v>5488</v>
+        <v>5507</v>
       </c>
       <c r="D117" s="4">
         <v>56887</v>
       </c>
       <c r="E117" s="4">
-        <v>212612</v>
+        <v>212631</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3049,13 +3049,13 @@
         <v>15107</v>
       </c>
       <c r="C118" s="4">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="D118" s="4">
-        <v>11925</v>
+        <v>11929</v>
       </c>
       <c r="E118" s="4">
-        <v>28940</v>
+        <v>28945</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3100,13 +3100,13 @@
         <v>12459</v>
       </c>
       <c r="C121" s="4">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D121" s="4">
         <v>6650</v>
       </c>
       <c r="E121" s="4">
-        <v>19773</v>
+        <v>19774</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3117,13 +3117,13 @@
         <v>31885</v>
       </c>
       <c r="C122" s="4">
-        <v>3241</v>
+        <v>3252</v>
       </c>
       <c r="D122" s="4">
         <v>20465</v>
       </c>
       <c r="E122" s="4">
-        <v>55591</v>
+        <v>55602</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3151,13 +3151,13 @@
         <v>264788</v>
       </c>
       <c r="C124" s="4">
-        <v>17365</v>
+        <v>17465</v>
       </c>
       <c r="D124" s="4">
         <v>123232</v>
       </c>
       <c r="E124" s="4">
-        <v>405385</v>
+        <v>405485</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>96155</v>
+        <v>96157</v>
       </c>
       <c r="C126" s="4">
-        <v>11582</v>
+        <v>11590</v>
       </c>
       <c r="D126" s="4">
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="E126" s="4">
-        <v>149516</v>
+        <v>149527</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>224537</v>
+        <v>224552</v>
       </c>
       <c r="C127" s="4">
-        <v>9790</v>
+        <v>9816</v>
       </c>
       <c r="D127" s="4">
-        <v>60955</v>
+        <v>60956</v>
       </c>
       <c r="E127" s="4">
-        <v>295282</v>
+        <v>295324</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3219,13 +3219,13 @@
         <v>13023</v>
       </c>
       <c r="C128" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D128" s="4">
         <v>11722</v>
       </c>
       <c r="E128" s="4">
-        <v>24996</v>
+        <v>24997</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>24090</v>
+        <v>24095</v>
       </c>
       <c r="C129" s="4">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D129" s="4">
         <v>16697</v>
       </c>
       <c r="E129" s="4">
-        <v>41404</v>
+        <v>41411</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3253,13 +3253,13 @@
         <v>202208</v>
       </c>
       <c r="C130" s="4">
-        <v>7801</v>
+        <v>7832</v>
       </c>
       <c r="D130" s="4">
         <v>64666</v>
       </c>
       <c r="E130" s="4">
-        <v>274675</v>
+        <v>274706</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>50141</v>
+        <v>50147</v>
       </c>
       <c r="C131" s="4">
-        <v>3373</v>
+        <v>3438</v>
       </c>
       <c r="D131" s="4">
-        <v>26689</v>
+        <v>26692</v>
       </c>
       <c r="E131" s="4">
-        <v>80203</v>
+        <v>80277</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3321,13 +3321,13 @@
         <v>50896</v>
       </c>
       <c r="C134" s="4">
-        <v>2523</v>
+        <v>2572</v>
       </c>
       <c r="D134" s="4">
-        <v>59091</v>
+        <v>59101</v>
       </c>
       <c r="E134" s="4">
-        <v>112510</v>
+        <v>112569</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3389,13 +3389,13 @@
         <v>45882</v>
       </c>
       <c r="C138" s="4">
-        <v>5607</v>
+        <v>5611</v>
       </c>
       <c r="D138" s="4">
         <v>21469</v>
       </c>
       <c r="E138" s="4">
-        <v>72958</v>
+        <v>72962</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3440,13 +3440,13 @@
         <v>34251</v>
       </c>
       <c r="C141" s="4">
-        <v>3147</v>
+        <v>3159</v>
       </c>
       <c r="D141" s="4">
         <v>25959</v>
       </c>
       <c r="E141" s="4">
-        <v>63357</v>
+        <v>63369</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10432</v>
+        <v>10434</v>
       </c>
       <c r="C142" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D142" s="4">
-        <v>12975</v>
+        <v>12976</v>
       </c>
       <c r="E142" s="4">
-        <v>23605</v>
+        <v>23609</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3474,13 +3474,13 @@
         <v>33625</v>
       </c>
       <c r="C143" s="4">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="D143" s="4">
-        <v>9408</v>
+        <v>9409</v>
       </c>
       <c r="E143" s="4">
-        <v>43872</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3491,13 +3491,13 @@
         <v>21042</v>
       </c>
       <c r="C144" s="4">
-        <v>1499</v>
+        <v>1509</v>
       </c>
       <c r="D144" s="4">
-        <v>19360</v>
+        <v>19363</v>
       </c>
       <c r="E144" s="4">
-        <v>41901</v>
+        <v>41914</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3508,13 +3508,13 @@
         <v>14836</v>
       </c>
       <c r="C145" s="4">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D145" s="4">
         <v>8404</v>
       </c>
       <c r="E145" s="4">
-        <v>23779</v>
+        <v>23785</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3525,13 +3525,13 @@
         <v>19174</v>
       </c>
       <c r="C146" s="4">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="D146" s="4">
         <v>8897</v>
       </c>
       <c r="E146" s="4">
-        <v>28994</v>
+        <v>29002</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>104299</v>
+        <v>104309</v>
       </c>
       <c r="C147" s="4">
-        <v>4921</v>
+        <v>4927</v>
       </c>
       <c r="D147" s="4">
-        <v>32799</v>
+        <v>32805</v>
       </c>
       <c r="E147" s="4">
-        <v>142019</v>
+        <v>142041</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3573,16 +3573,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C149" s="4">
         <v>330</v>
       </c>
       <c r="D149" s="4">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="E149" s="4">
-        <v>2429</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3610,13 +3610,13 @@
         <v>20813</v>
       </c>
       <c r="C151" s="4">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D151" s="4">
         <v>6548</v>
       </c>
       <c r="E151" s="4">
-        <v>28149</v>
+        <v>28155</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3644,13 +3644,13 @@
         <v>390185</v>
       </c>
       <c r="C153" s="4">
-        <v>13576</v>
+        <v>13738</v>
       </c>
       <c r="D153" s="4">
         <v>215629</v>
       </c>
       <c r="E153" s="4">
-        <v>619390</v>
+        <v>619552</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3681,10 +3681,10 @@
         <v>432</v>
       </c>
       <c r="D155" s="4">
-        <v>7606</v>
+        <v>7607</v>
       </c>
       <c r="E155" s="4">
-        <v>29179</v>
+        <v>29180</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3746,13 +3746,13 @@
         <v>54563</v>
       </c>
       <c r="C159" s="4">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D159" s="4">
-        <v>8987</v>
+        <v>8988</v>
       </c>
       <c r="E159" s="4">
-        <v>65635</v>
+        <v>65637</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>110521</v>
+        <v>110522</v>
       </c>
       <c r="C160" s="4">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D160" s="4">
-        <v>33072</v>
+        <v>33078</v>
       </c>
       <c r="E160" s="4">
-        <v>144139</v>
+        <v>144147</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>464521</v>
+        <v>464541</v>
       </c>
       <c r="C162" s="4">
-        <v>14448</v>
+        <v>14534</v>
       </c>
       <c r="D162" s="4">
-        <v>182205</v>
+        <v>182222</v>
       </c>
       <c r="E162" s="4">
-        <v>661174</v>
+        <v>661297</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>58109</v>
+        <v>58110</v>
       </c>
       <c r="C164" s="4">
-        <v>1897</v>
+        <v>1914</v>
       </c>
       <c r="D164" s="4">
-        <v>18577</v>
+        <v>18579</v>
       </c>
       <c r="E164" s="4">
-        <v>78583</v>
+        <v>78603</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>92367</v>
+        <v>92376</v>
       </c>
       <c r="C166" s="4">
-        <v>12835</v>
+        <v>12911</v>
       </c>
       <c r="D166" s="4">
-        <v>101509</v>
+        <v>101609</v>
       </c>
       <c r="E166" s="4">
-        <v>206711</v>
+        <v>206896</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3882,13 +3882,13 @@
         <v>28645</v>
       </c>
       <c r="C167" s="4">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="D167" s="4">
         <v>16332</v>
       </c>
       <c r="E167" s="4">
-        <v>46433</v>
+        <v>46436</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3933,13 +3933,13 @@
         <v>21078</v>
       </c>
       <c r="C170" s="4">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="D170" s="4">
         <v>12465</v>
       </c>
       <c r="E170" s="4">
-        <v>34932</v>
+        <v>34935</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>816861</v>
+        <v>816868</v>
       </c>
       <c r="C171" s="4">
-        <v>51518</v>
+        <v>51776</v>
       </c>
       <c r="D171" s="4">
-        <v>190221</v>
+        <v>190281</v>
       </c>
       <c r="E171" s="4">
-        <v>1058600</v>
+        <v>1058925</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12715</v>
+        <v>12718</v>
       </c>
       <c r="C172" s="4">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D172" s="4">
-        <v>8865</v>
+        <v>8867</v>
       </c>
       <c r="E172" s="4">
-        <v>22846</v>
+        <v>22853</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3987,10 +3987,10 @@
         <v>844</v>
       </c>
       <c r="D173" s="4">
-        <v>9603</v>
+        <v>9604</v>
       </c>
       <c r="E173" s="4">
-        <v>21269</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4018,13 +4018,13 @@
         <v>73717</v>
       </c>
       <c r="C175" s="4">
-        <v>4800</v>
+        <v>4835</v>
       </c>
       <c r="D175" s="4">
         <v>26222</v>
       </c>
       <c r="E175" s="4">
-        <v>104739</v>
+        <v>104774</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4035,13 +4035,13 @@
         <v>45550</v>
       </c>
       <c r="C176" s="4">
-        <v>2200</v>
+        <v>2206</v>
       </c>
       <c r="D176" s="4">
         <v>41972</v>
       </c>
       <c r="E176" s="4">
-        <v>89722</v>
+        <v>89728</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4052,13 +4052,13 @@
         <v>8101</v>
       </c>
       <c r="C177" s="4">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="D177" s="4">
         <v>6699</v>
       </c>
       <c r="E177" s="4">
-        <v>15782</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4069,13 +4069,13 @@
         <v>11003</v>
       </c>
       <c r="C178" s="4">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D178" s="4">
         <v>10022</v>
       </c>
       <c r="E178" s="4">
-        <v>21266</v>
+        <v>21270</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>420874</v>
+        <v>420906</v>
       </c>
       <c r="C179" s="4">
-        <v>54932</v>
+        <v>55088</v>
       </c>
       <c r="D179" s="4">
-        <v>217306</v>
+        <v>217311</v>
       </c>
       <c r="E179" s="4">
-        <v>693112</v>
+        <v>693305</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,7 +4100,7 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>2354</v>
+        <v>2364</v>
       </c>
       <c r="C180" s="4">
         <v>470</v>
@@ -4109,7 +4109,7 @@
         <v>1807</v>
       </c>
       <c r="E180" s="4">
-        <v>4631</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4137,13 +4137,13 @@
         <v>62642</v>
       </c>
       <c r="C182" s="4">
-        <v>7523</v>
+        <v>7552</v>
       </c>
       <c r="D182" s="4">
-        <v>38948</v>
+        <v>38949</v>
       </c>
       <c r="E182" s="4">
-        <v>109113</v>
+        <v>109143</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4154,13 +4154,13 @@
         <v>29234</v>
       </c>
       <c r="C183" s="4">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D183" s="4">
         <v>14746</v>
       </c>
       <c r="E183" s="4">
-        <v>45147</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4174,10 +4174,10 @@
         <v>1382</v>
       </c>
       <c r="D184" s="4">
-        <v>12511</v>
+        <v>12514</v>
       </c>
       <c r="E184" s="4">
-        <v>30924</v>
+        <v>30927</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>157244</v>
+        <v>157245</v>
       </c>
       <c r="C185" s="4">
-        <v>8443</v>
+        <v>8463</v>
       </c>
       <c r="D185" s="4">
         <v>48933</v>
       </c>
       <c r="E185" s="4">
-        <v>214620</v>
+        <v>214641</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4239,13 +4239,13 @@
         <v>64096</v>
       </c>
       <c r="C188" s="4">
-        <v>3122</v>
+        <v>3142</v>
       </c>
       <c r="D188" s="4">
-        <v>26869</v>
+        <v>26870</v>
       </c>
       <c r="E188" s="4">
-        <v>94087</v>
+        <v>94108</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4256,13 +4256,13 @@
         <v>128790</v>
       </c>
       <c r="C189" s="4">
-        <v>10460</v>
+        <v>10471</v>
       </c>
       <c r="D189" s="4">
         <v>58262</v>
       </c>
       <c r="E189" s="4">
-        <v>197512</v>
+        <v>197523</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4307,13 +4307,13 @@
         <v>98020</v>
       </c>
       <c r="C192" s="4">
-        <v>21367</v>
+        <v>21397</v>
       </c>
       <c r="D192" s="4">
         <v>50873</v>
       </c>
       <c r="E192" s="4">
-        <v>170260</v>
+        <v>170290</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4341,13 +4341,13 @@
         <v>3098</v>
       </c>
       <c r="C194" s="4">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D194" s="4">
         <v>1966</v>
       </c>
       <c r="E194" s="4">
-        <v>5210</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4389,7 +4389,7 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6635</v>
+        <v>6636</v>
       </c>
       <c r="C197" s="4">
         <v>567</v>
@@ -4398,7 +4398,7 @@
         <v>10415</v>
       </c>
       <c r="E197" s="4">
-        <v>17617</v>
+        <v>17618</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4426,13 +4426,13 @@
         <v>21720</v>
       </c>
       <c r="C199" s="4">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D199" s="4">
-        <v>15690</v>
+        <v>15691</v>
       </c>
       <c r="E199" s="4">
-        <v>38017</v>
+        <v>38021</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4443,13 +4443,13 @@
         <v>128013</v>
       </c>
       <c r="C200" s="4">
-        <v>8793</v>
+        <v>8845</v>
       </c>
       <c r="D200" s="4">
         <v>28109</v>
       </c>
       <c r="E200" s="4">
-        <v>164915</v>
+        <v>164967</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4477,13 +4477,13 @@
         <v>39238</v>
       </c>
       <c r="C202" s="4">
-        <v>2609</v>
+        <v>2617</v>
       </c>
       <c r="D202" s="4">
         <v>12984</v>
       </c>
       <c r="E202" s="4">
-        <v>54831</v>
+        <v>54839</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4494,13 +4494,13 @@
         <v>12354</v>
       </c>
       <c r="C203" s="4">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D203" s="4">
         <v>5550</v>
       </c>
       <c r="E203" s="4">
-        <v>18702</v>
+        <v>18706</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4511,13 +4511,13 @@
         <v>11912</v>
       </c>
       <c r="C204" s="4">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D204" s="4">
         <v>11330</v>
       </c>
       <c r="E204" s="4">
-        <v>23558</v>
+        <v>23562</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>36242</v>
+        <v>36247</v>
       </c>
       <c r="C205" s="4">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="D205" s="4">
-        <v>12333</v>
+        <v>12348</v>
       </c>
       <c r="E205" s="4">
-        <v>51147</v>
+        <v>51168</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>65257</v>
+        <v>65260</v>
       </c>
       <c r="C206" s="4">
-        <v>10336</v>
+        <v>10355</v>
       </c>
       <c r="D206" s="4">
         <v>54055</v>
       </c>
       <c r="E206" s="4">
-        <v>129648</v>
+        <v>129670</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4596,13 +4596,13 @@
         <v>32557</v>
       </c>
       <c r="C209" s="4">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D209" s="4">
         <v>6348</v>
       </c>
       <c r="E209" s="4">
-        <v>39274</v>
+        <v>39277</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4630,13 +4630,13 @@
         <v>25055</v>
       </c>
       <c r="C211" s="4">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="D211" s="4">
         <v>12701</v>
       </c>
       <c r="E211" s="4">
-        <v>39287</v>
+        <v>39292</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4664,13 +4664,13 @@
         <v>333525</v>
       </c>
       <c r="C213" s="4">
-        <v>17188</v>
+        <v>17399</v>
       </c>
       <c r="D213" s="4">
         <v>124666</v>
       </c>
       <c r="E213" s="4">
-        <v>475379</v>
+        <v>475590</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4681,13 +4681,13 @@
         <v>10433</v>
       </c>
       <c r="C214" s="4">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D214" s="4">
         <v>9233</v>
       </c>
       <c r="E214" s="4">
-        <v>20130</v>
+        <v>20133</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>96780</v>
+        <v>96783</v>
       </c>
       <c r="C215" s="4">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="D215" s="4">
-        <v>42394</v>
+        <v>42397</v>
       </c>
       <c r="E215" s="4">
-        <v>140143</v>
+        <v>140167</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4715,13 +4715,13 @@
         <v>6718</v>
       </c>
       <c r="C216" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D216" s="4">
         <v>8275</v>
       </c>
       <c r="E216" s="4">
-        <v>15175</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4786,10 +4786,10 @@
         <v>472</v>
       </c>
       <c r="D220" s="4">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="E220" s="4">
-        <v>12183</v>
+        <v>12184</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3233062</v>
+        <v>3233066</v>
       </c>
       <c r="C221" s="4">
-        <v>124342</v>
+        <v>124772</v>
       </c>
       <c r="D221" s="4">
-        <v>747010</v>
+        <v>747013</v>
       </c>
       <c r="E221" s="4">
-        <v>4104414</v>
+        <v>4104851</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>127959</v>
+        <v>127966</v>
       </c>
       <c r="C222" s="4">
-        <v>5019</v>
+        <v>5052</v>
       </c>
       <c r="D222" s="4">
-        <v>177992</v>
+        <v>178007</v>
       </c>
       <c r="E222" s="4">
-        <v>310970</v>
+        <v>311025</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4851,13 +4851,13 @@
         <v>6341</v>
       </c>
       <c r="C224" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D224" s="4">
         <v>5022</v>
       </c>
       <c r="E224" s="4">
-        <v>11510</v>
+        <v>11511</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4885,13 +4885,13 @@
         <v>38294</v>
       </c>
       <c r="C226" s="4">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="D226" s="4">
-        <v>12592</v>
+        <v>12593</v>
       </c>
       <c r="E226" s="4">
-        <v>52428</v>
+        <v>52433</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4902,13 +4902,13 @@
         <v>109609</v>
       </c>
       <c r="C227" s="4">
-        <v>3454</v>
+        <v>3459</v>
       </c>
       <c r="D227" s="4">
-        <v>167296</v>
+        <v>167313</v>
       </c>
       <c r="E227" s="4">
-        <v>280359</v>
+        <v>280381</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2189431</v>
+        <v>2189435</v>
       </c>
       <c r="C228" s="4">
-        <v>101176</v>
+        <v>103363</v>
       </c>
       <c r="D228" s="4">
-        <v>566312</v>
+        <v>566313</v>
       </c>
       <c r="E228" s="4">
-        <v>2856919</v>
+        <v>2859111</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4936,13 +4936,13 @@
         <v>19968</v>
       </c>
       <c r="C229" s="4">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D229" s="4">
-        <v>9901</v>
+        <v>9902</v>
       </c>
       <c r="E229" s="4">
-        <v>30512</v>
+        <v>30516</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4970,13 +4970,13 @@
         <v>18069</v>
       </c>
       <c r="C231" s="4">
-        <v>2659</v>
+        <v>2671</v>
       </c>
       <c r="D231" s="4">
-        <v>11792</v>
+        <v>11793</v>
       </c>
       <c r="E231" s="4">
-        <v>32520</v>
+        <v>32533</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -5004,13 +5004,13 @@
         <v>52566</v>
       </c>
       <c r="C233" s="4">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D233" s="4">
         <v>7814</v>
       </c>
       <c r="E233" s="4">
-        <v>61029</v>
+        <v>61039</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5021,13 +5021,13 @@
         <v>76328</v>
       </c>
       <c r="C234" s="4">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D234" s="4">
         <v>38928</v>
       </c>
       <c r="E234" s="4">
-        <v>116628</v>
+        <v>116630</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5038,13 +5038,13 @@
         <v>39184</v>
       </c>
       <c r="C235" s="4">
-        <v>2566</v>
+        <v>2573</v>
       </c>
       <c r="D235" s="4">
         <v>26025</v>
       </c>
       <c r="E235" s="4">
-        <v>67775</v>
+        <v>67782</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5055,13 +5055,13 @@
         <v>85025</v>
       </c>
       <c r="C236" s="4">
-        <v>6741</v>
+        <v>6871</v>
       </c>
       <c r="D236" s="4">
         <v>38060</v>
       </c>
       <c r="E236" s="4">
-        <v>129826</v>
+        <v>129956</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>188406</v>
+        <v>188408</v>
       </c>
       <c r="C237" s="4">
-        <v>3471</v>
+        <v>3481</v>
       </c>
       <c r="D237" s="4">
-        <v>54378</v>
+        <v>54379</v>
       </c>
       <c r="E237" s="4">
-        <v>246255</v>
+        <v>246268</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5089,13 +5089,13 @@
         <v>72533</v>
       </c>
       <c r="C238" s="4">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="D238" s="4">
-        <v>14274</v>
+        <v>14276</v>
       </c>
       <c r="E238" s="4">
-        <v>89293</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,7 +5103,7 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6673</v>
+        <v>6674</v>
       </c>
       <c r="C239" s="4">
         <v>246</v>
@@ -5112,7 +5112,7 @@
         <v>3748</v>
       </c>
       <c r="E239" s="4">
-        <v>10667</v>
+        <v>10668</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>62265</v>
+        <v>62266</v>
       </c>
       <c r="C240" s="4">
-        <v>2186</v>
+        <v>2198</v>
       </c>
       <c r="D240" s="4">
-        <v>34567</v>
+        <v>34571</v>
       </c>
       <c r="E240" s="4">
-        <v>99018</v>
+        <v>99035</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>652975</v>
+        <v>652985</v>
       </c>
       <c r="C241" s="4">
-        <v>7301</v>
+        <v>7314</v>
       </c>
       <c r="D241" s="4">
-        <v>182427</v>
+        <v>182437</v>
       </c>
       <c r="E241" s="4">
-        <v>842703</v>
+        <v>842736</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>56031</v>
+        <v>56032</v>
       </c>
       <c r="C242" s="4">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D242" s="4">
         <v>20726</v>
       </c>
       <c r="E242" s="4">
-        <v>79532</v>
+        <v>79539</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="C243" s="4">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D243" s="4">
         <v>5761</v>
       </c>
       <c r="E243" s="4">
-        <v>9058</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>175547</v>
+        <v>175584</v>
       </c>
       <c r="C244" s="4">
-        <v>13242</v>
+        <v>13263</v>
       </c>
       <c r="D244" s="4">
-        <v>96551</v>
+        <v>96598</v>
       </c>
       <c r="E244" s="4">
-        <v>285340</v>
+        <v>285445</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>59144</v>
+        <v>59145</v>
       </c>
       <c r="C246" s="4">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D246" s="4">
-        <v>11740</v>
+        <v>11744</v>
       </c>
       <c r="E246" s="4">
-        <v>71146</v>
+        <v>71152</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>966071</v>
+        <v>966076</v>
       </c>
       <c r="C247" s="4">
-        <v>46378</v>
+        <v>47404</v>
       </c>
       <c r="D247" s="4">
-        <v>262068</v>
+        <v>262069</v>
       </c>
       <c r="E247" s="4">
-        <v>1274517</v>
+        <v>1275549</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5259,13 +5259,13 @@
         <v>60905</v>
       </c>
       <c r="C248" s="4">
-        <v>1755</v>
+        <v>1770</v>
       </c>
       <c r="D248" s="4">
-        <v>32005</v>
+        <v>32011</v>
       </c>
       <c r="E248" s="4">
-        <v>94665</v>
+        <v>94686</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5293,13 +5293,13 @@
         <v>86057</v>
       </c>
       <c r="C250" s="4">
-        <v>4322</v>
+        <v>4359</v>
       </c>
       <c r="D250" s="4">
         <v>21200</v>
       </c>
       <c r="E250" s="4">
-        <v>111579</v>
+        <v>111616</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5310,13 +5310,13 @@
         <v>33895</v>
       </c>
       <c r="C251" s="4">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="D251" s="4">
         <v>23792</v>
       </c>
       <c r="E251" s="4">
-        <v>60268</v>
+        <v>60276</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>13023</v>
+        <v>13024</v>
       </c>
       <c r="C253" s="4">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D253" s="4">
         <v>8394</v>
       </c>
       <c r="E253" s="4">
-        <v>22152</v>
+        <v>22154</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5361,13 +5361,13 @@
         <v>21166</v>
       </c>
       <c r="C254" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D254" s="4">
-        <v>20745</v>
+        <v>20746</v>
       </c>
       <c r="E254" s="4">
-        <v>42088</v>
+        <v>42092</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>551183</v>
+        <v>551184</v>
       </c>
       <c r="C256" s="4">
-        <v>14643</v>
+        <v>14644</v>
       </c>
       <c r="D256" s="4">
-        <v>20227</v>
+        <v>20228</v>
       </c>
       <c r="E256" s="4">
-        <v>586053</v>
+        <v>586056</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>46923283</v>
+        <v>46923752</v>
       </c>
       <c r="C257" s="4">
-        <v>1881871</v>
+        <v>1893301</v>
       </c>
       <c r="D257" s="4">
-        <v>12863348</v>
+        <v>12864363</v>
       </c>
       <c r="E257" s="4">
-        <v>61668502</v>
+        <v>61681416</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
